--- a/SM/TD.xlsx
+++ b/SM/TD.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>NewPaper</t>
   </si>
